--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2912.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2912.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.145091738221509</v>
+        <v>1.42166531085968</v>
       </c>
       <c r="B1">
-        <v>-1</v>
+        <v>1.979551792144775</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>2.98771595954895</v>
       </c>
       <c r="D1">
-        <v>-1</v>
+        <v>4.882411479949951</v>
       </c>
       <c r="E1">
-        <v>1.119285533569659</v>
+        <v>0.9247080683708191</v>
       </c>
     </row>
   </sheetData>
